--- a/final_data_pipeline/output/311513longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311513longform_elec_options_nowhp.xlsx
@@ -694,7 +694,7 @@
         <v>44</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -709,10 +709,10 @@
         <v>919063.5325570232</v>
       </c>
       <c r="N4">
-        <v>1.741590909090909</v>
+        <v>1.782371783972741</v>
       </c>
       <c r="O4">
-        <v>1.89075</v>
+        <v>1.939565227172176</v>
       </c>
       <c r="P4">
         <v>114.8829415696279</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -762,10 +762,10 @@
         <v>402269.0602377881</v>
       </c>
       <c r="N5">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="O5">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="P5">
         <v>50.28363252972352</v>
@@ -800,7 +800,7 @@
         <v>44</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J6">
         <v>8000</v>
@@ -815,10 +815,10 @@
         <v>464597.8028598594</v>
       </c>
       <c r="N6">
-        <v>1.741590909090909</v>
+        <v>1.62249843161857</v>
       </c>
       <c r="O6">
-        <v>1.89075</v>
+        <v>1.749494516792324</v>
       </c>
       <c r="P6">
         <v>58.07472535748242</v>
@@ -853,7 +853,7 @@
         <v>45</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -900,7 +900,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -915,10 +915,10 @@
         <v>1513735.044102835</v>
       </c>
       <c r="N8">
-        <v>1.741590909090909</v>
+        <v>1.784885911058073</v>
       </c>
       <c r="O8">
-        <v>1.89075</v>
+        <v>1.942582169301264</v>
       </c>
       <c r="P8">
         <v>189.2168805128543</v>
@@ -953,7 +953,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -1053,7 +1053,7 @@
         <v>44</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1068,10 +1068,10 @@
         <v>633640.9078500222</v>
       </c>
       <c r="N11">
-        <v>1.741590909090909</v>
+        <v>1.554711451758341</v>
       </c>
       <c r="O11">
-        <v>1.89075</v>
+        <v>1.669946025515211</v>
       </c>
       <c r="P11">
         <v>79.20511348125278</v>
@@ -1259,7 +1259,7 @@
         <v>44</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1274,10 +1274,10 @@
         <v>637800.9771343042</v>
       </c>
       <c r="N15">
-        <v>1.741590909090909</v>
+        <v>1.62249843161857</v>
       </c>
       <c r="O15">
-        <v>1.89075</v>
+        <v>1.749494516792324</v>
       </c>
       <c r="P15">
         <v>79.72512214178803</v>
@@ -1312,7 +1312,7 @@
         <v>44</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J16">
         <v>8000</v>
@@ -1327,10 +1327,10 @@
         <v>611453.3696071696</v>
       </c>
       <c r="N16">
-        <v>1.741590909090909</v>
+        <v>1.929056920423291</v>
       </c>
       <c r="O16">
-        <v>1.89075</v>
+        <v>2.117059768804106</v>
       </c>
       <c r="P16">
         <v>76.4316712008962</v>
@@ -1365,7 +1365,7 @@
         <v>45</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J17">
         <v>8000</v>
@@ -1412,7 +1412,7 @@
         <v>44</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J18">
         <v>8000</v>
@@ -1427,10 +1427,10 @@
         <v>337331.1063640936</v>
       </c>
       <c r="N18">
-        <v>1.741590909090909</v>
+        <v>1.8239809580482</v>
       </c>
       <c r="O18">
-        <v>1.89075</v>
+        <v>1.989608681354817</v>
       </c>
       <c r="P18">
         <v>42.16638829551169</v>
@@ -1465,7 +1465,7 @@
         <v>44</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J19">
         <v>8000</v>
@@ -1480,10 +1480,10 @@
         <v>459005.3563527851</v>
       </c>
       <c r="N19">
-        <v>1.741590909090909</v>
+        <v>1.62249843161857</v>
       </c>
       <c r="O19">
-        <v>1.89075</v>
+        <v>1.749494516792324</v>
       </c>
       <c r="P19">
         <v>57.37566954409814</v>
@@ -1518,7 +1518,7 @@
         <v>44</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="J20">
         <v>8000</v>
@@ -1533,10 +1533,10 @@
         <v>564064.4268514247</v>
       </c>
       <c r="N20">
-        <v>1.741590909090909</v>
+        <v>1.554711451758341</v>
       </c>
       <c r="O20">
-        <v>1.89075</v>
+        <v>1.669946025515211</v>
       </c>
       <c r="P20">
         <v>70.50805335642809</v>
@@ -1571,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="J21">
         <v>8000</v>
